--- a/SoporteConfiguracion.xlsx
+++ b/SoporteConfiguracion.xlsx
@@ -418,16 +418,16 @@
     <t>Required</t>
   </si>
   <si>
-    <t>idiomas</t>
+    <t>perfil</t>
   </si>
   <si>
-    <t>propuesta_grado</t>
+    <t>idiomas</t>
   </si>
   <si>
     <t>produccion_academica</t>
   </si>
   <si>
-    <t>perfil</t>
+    <t>documento_programa</t>
   </si>
   <si>
     <t>formacion_academica</t>
@@ -436,13 +436,13 @@
     <t>experiencia_laboral</t>
   </si>
   <si>
-    <t>descuento_matricula</t>
-  </si>
-  <si>
-    <t>documento_programa</t>
+    <t>propuesta_grado</t>
   </si>
   <si>
     <t>info_persona</t>
+  </si>
+  <si>
+    <t>descuento_matricula</t>
   </si>
 </sst>
 </file>
